--- a/day09_excel_screenshot_jsExecutor/ulkeler.xlsx
+++ b/day09_excel_screenshot_jsExecutor/ulkeler.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D86C9920-FFD5-5441-B44B-66D9A4818B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE75043-72F9-7445-B692-46D942F7D229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="577">
   <si>
     <t>Ülke (İngilizce)</t>
   </si>
@@ -2183,7 +2183,7 @@
   <dimension ref="A1:E191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
